--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_36ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_36ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1677,28 +1677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>325.3086881519366</v>
+        <v>432.9824221257685</v>
       </c>
       <c r="AB2" t="n">
-        <v>445.1016987359164</v>
+        <v>592.4256517888016</v>
       </c>
       <c r="AC2" t="n">
-        <v>402.6218173127174</v>
+        <v>535.885379056702</v>
       </c>
       <c r="AD2" t="n">
-        <v>325308.6881519366</v>
+        <v>432982.4221257685</v>
       </c>
       <c r="AE2" t="n">
-        <v>445101.6987359164</v>
+        <v>592425.6517888015</v>
       </c>
       <c r="AF2" t="n">
         <v>7.216025345637565e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.74768518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>402621.8173127174</v>
+        <v>535885.379056702</v>
       </c>
     </row>
     <row r="3">
@@ -1783,28 +1783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>225.9931453012576</v>
+        <v>304.2339956563427</v>
       </c>
       <c r="AB3" t="n">
-        <v>309.2137915149521</v>
+        <v>416.2663747136304</v>
       </c>
       <c r="AC3" t="n">
-        <v>279.7028612371387</v>
+        <v>376.5384961444871</v>
       </c>
       <c r="AD3" t="n">
-        <v>225993.1453012576</v>
+        <v>304233.9956563427</v>
       </c>
       <c r="AE3" t="n">
-        <v>309213.7915149521</v>
+        <v>416266.3747136304</v>
       </c>
       <c r="AF3" t="n">
         <v>9.772206687889799e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.06481481481482</v>
       </c>
       <c r="AH3" t="n">
-        <v>279702.8612371387</v>
+        <v>376538.4961444871</v>
       </c>
     </row>
     <row r="4">
@@ -1889,28 +1889,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>215.7461302262302</v>
+        <v>303.7744908218064</v>
       </c>
       <c r="AB4" t="n">
-        <v>295.1933734229069</v>
+        <v>415.6376599270952</v>
       </c>
       <c r="AC4" t="n">
-        <v>267.0205321700133</v>
+        <v>375.969785014772</v>
       </c>
       <c r="AD4" t="n">
-        <v>215746.1302262302</v>
+        <v>303774.4908218064</v>
       </c>
       <c r="AE4" t="n">
-        <v>295193.3734229069</v>
+        <v>415637.6599270952</v>
       </c>
       <c r="AF4" t="n">
         <v>9.82183864392504e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.9837962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>267020.5321700133</v>
+        <v>375969.785014772</v>
       </c>
     </row>
   </sheetData>
@@ -2186,28 +2186,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>260.9670721063465</v>
+        <v>357.7383981886468</v>
       </c>
       <c r="AB2" t="n">
-        <v>357.0666611105751</v>
+        <v>489.4734587059766</v>
       </c>
       <c r="AC2" t="n">
-        <v>322.9887201203874</v>
+        <v>442.7587987873913</v>
       </c>
       <c r="AD2" t="n">
-        <v>260967.0721063465</v>
+        <v>357738.3981886468</v>
       </c>
       <c r="AE2" t="n">
-        <v>357066.6611105751</v>
+        <v>489473.4587059766</v>
       </c>
       <c r="AF2" t="n">
         <v>9.116517725945145e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.8425925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>322988.7201203874</v>
+        <v>442758.7987873913</v>
       </c>
     </row>
     <row r="3">
@@ -2292,28 +2292,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>219.7497479766717</v>
+        <v>297.1268213698348</v>
       </c>
       <c r="AB3" t="n">
-        <v>300.6712998562075</v>
+        <v>406.5420253084299</v>
       </c>
       <c r="AC3" t="n">
-        <v>271.9756529928396</v>
+        <v>367.7422249983087</v>
       </c>
       <c r="AD3" t="n">
-        <v>219749.7479766717</v>
+        <v>297126.8213698348</v>
       </c>
       <c r="AE3" t="n">
-        <v>300671.2998562075</v>
+        <v>406542.0253084299</v>
       </c>
       <c r="AF3" t="n">
         <v>1.06547566749348e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.12268518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>271975.6529928396</v>
+        <v>367742.2249983087</v>
       </c>
     </row>
   </sheetData>
@@ -2589,28 +2589,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>228.4784760523042</v>
+        <v>312.6104919021413</v>
       </c>
       <c r="AB2" t="n">
-        <v>312.6143306935869</v>
+        <v>427.7274664220653</v>
       </c>
       <c r="AC2" t="n">
-        <v>282.7788577292523</v>
+        <v>386.9057573460121</v>
       </c>
       <c r="AD2" t="n">
-        <v>228478.4760523042</v>
+        <v>312610.4919021413</v>
       </c>
       <c r="AE2" t="n">
-        <v>312614.3306935868</v>
+        <v>427727.4664220653</v>
       </c>
       <c r="AF2" t="n">
         <v>1.328883382026798e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.03240740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>282778.8577292523</v>
+        <v>386905.7573460122</v>
       </c>
     </row>
   </sheetData>
@@ -2886,28 +2886,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>212.1750069035984</v>
+        <v>297.4839726411302</v>
       </c>
       <c r="AB2" t="n">
-        <v>290.3072049460425</v>
+        <v>407.0306954342182</v>
       </c>
       <c r="AC2" t="n">
-        <v>262.6006927547989</v>
+        <v>368.1842571331446</v>
       </c>
       <c r="AD2" t="n">
-        <v>212175.0069035984</v>
+        <v>297483.9726411302</v>
       </c>
       <c r="AE2" t="n">
-        <v>290307.2049460425</v>
+        <v>407030.6954342182</v>
       </c>
       <c r="AF2" t="n">
         <v>1.225709369192951e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.93287037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>262600.6927547989</v>
+        <v>368184.2571331446</v>
       </c>
     </row>
   </sheetData>
@@ -3183,28 +3183,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>237.5685129110003</v>
+        <v>330.080944822775</v>
       </c>
       <c r="AB2" t="n">
-        <v>325.0517201477719</v>
+        <v>451.6313108500627</v>
       </c>
       <c r="AC2" t="n">
-        <v>294.0292401899196</v>
+        <v>408.5282524110579</v>
       </c>
       <c r="AD2" t="n">
-        <v>237568.5129110003</v>
+        <v>330080.944822775</v>
       </c>
       <c r="AE2" t="n">
-        <v>325051.7201477719</v>
+        <v>451631.3108500628</v>
       </c>
       <c r="AF2" t="n">
         <v>1.397899204165083e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.6412037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>294029.2401899196</v>
+        <v>408528.2524110579</v>
       </c>
     </row>
   </sheetData>
@@ -3480,28 +3480,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>278.4756082977815</v>
+        <v>375.463410059564</v>
       </c>
       <c r="AB2" t="n">
-        <v>381.0226127497983</v>
+        <v>513.7256019201002</v>
       </c>
       <c r="AC2" t="n">
-        <v>344.6583493575525</v>
+        <v>464.6963514912558</v>
       </c>
       <c r="AD2" t="n">
-        <v>278475.6082977815</v>
+        <v>375463.4100595639</v>
       </c>
       <c r="AE2" t="n">
-        <v>381022.6127497983</v>
+        <v>513725.6019201002</v>
       </c>
       <c r="AF2" t="n">
         <v>8.59772070255047e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.49074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>344658.3493575525</v>
+        <v>464696.3514912558</v>
       </c>
     </row>
     <row r="3">
@@ -3586,28 +3586,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>221.410774985119</v>
+        <v>299.0148847680315</v>
       </c>
       <c r="AB3" t="n">
-        <v>302.9439902885039</v>
+        <v>409.1253569453208</v>
       </c>
       <c r="AC3" t="n">
-        <v>274.0314410400194</v>
+        <v>370.0790070895035</v>
       </c>
       <c r="AD3" t="n">
-        <v>221410.774985119</v>
+        <v>299014.8847680315</v>
       </c>
       <c r="AE3" t="n">
-        <v>302943.9902885039</v>
+        <v>409125.3569453208</v>
       </c>
       <c r="AF3" t="n">
         <v>1.039620651144552e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.12268518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>274031.4410400194</v>
+        <v>370079.0070895035</v>
       </c>
     </row>
   </sheetData>
@@ -3883,28 +3883,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>257.2564907920851</v>
+        <v>349.1185200344498</v>
       </c>
       <c r="AB2" t="n">
-        <v>351.9896800569419</v>
+        <v>477.6793611332188</v>
       </c>
       <c r="AC2" t="n">
-        <v>318.3962790130313</v>
+        <v>432.0903133338577</v>
       </c>
       <c r="AD2" t="n">
-        <v>257256.4907920851</v>
+        <v>349118.5200344498</v>
       </c>
       <c r="AE2" t="n">
-        <v>351989.6800569419</v>
+        <v>477679.3611332189</v>
       </c>
       <c r="AF2" t="n">
         <v>1.425401327176951e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.07638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>318396.2790130313</v>
+        <v>432090.3133338577</v>
       </c>
     </row>
   </sheetData>
@@ -4180,28 +4180,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>218.6830928792225</v>
+        <v>304.9449215127819</v>
       </c>
       <c r="AB2" t="n">
-        <v>299.2118552943765</v>
+        <v>417.2390948342456</v>
       </c>
       <c r="AC2" t="n">
-        <v>270.655495771646</v>
+        <v>377.418381222012</v>
       </c>
       <c r="AD2" t="n">
-        <v>218683.0928792225</v>
+        <v>304944.9215127819</v>
       </c>
       <c r="AE2" t="n">
-        <v>299211.8552943765</v>
+        <v>417239.0948342456</v>
       </c>
       <c r="AF2" t="n">
         <v>1.111059503472559e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.80555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>270655.495771646</v>
+        <v>377418.381222012</v>
       </c>
     </row>
     <row r="3">
@@ -4286,28 +4286,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>216.1090071986187</v>
+        <v>292.7492376596613</v>
       </c>
       <c r="AB3" t="n">
-        <v>295.6898777055306</v>
+        <v>400.5524221508072</v>
       </c>
       <c r="AC3" t="n">
-        <v>267.4696507807519</v>
+        <v>362.3242611595886</v>
       </c>
       <c r="AD3" t="n">
-        <v>216109.0071986187</v>
+        <v>292749.2376596613</v>
       </c>
       <c r="AE3" t="n">
-        <v>295689.8777055306</v>
+        <v>400552.4221508072</v>
       </c>
       <c r="AF3" t="n">
         <v>1.137422642829468e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.41203703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>267469.6507807518</v>
+        <v>362324.2611595886</v>
       </c>
     </row>
   </sheetData>
@@ -4583,28 +4583,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>252.8244433537835</v>
+        <v>339.6169374469517</v>
       </c>
       <c r="AB2" t="n">
-        <v>345.9255572237274</v>
+        <v>464.6788766567646</v>
       </c>
       <c r="AC2" t="n">
-        <v>312.9109075519669</v>
+        <v>420.3305768495417</v>
       </c>
       <c r="AD2" t="n">
-        <v>252824.4433537835</v>
+        <v>339616.9374469517</v>
       </c>
       <c r="AE2" t="n">
-        <v>345925.5572237274</v>
+        <v>464678.8766567646</v>
       </c>
       <c r="AF2" t="n">
         <v>9.732209178560865e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.11342592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>312910.9075519669</v>
+        <v>420330.5768495417</v>
       </c>
     </row>
     <row r="3">
@@ -4689,28 +4689,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>207.1734406051077</v>
+        <v>293.9649236684182</v>
       </c>
       <c r="AB3" t="n">
-        <v>283.4638412829189</v>
+        <v>402.2157773802699</v>
       </c>
       <c r="AC3" t="n">
-        <v>256.4104501149604</v>
+        <v>363.8288681004851</v>
       </c>
       <c r="AD3" t="n">
-        <v>207173.4406051078</v>
+        <v>293964.9236684182</v>
       </c>
       <c r="AE3" t="n">
-        <v>283463.8412829189</v>
+        <v>402215.7773802699</v>
       </c>
       <c r="AF3" t="n">
         <v>1.10250144945268e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.9837962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>256410.4501149604</v>
+        <v>363828.8681004851</v>
       </c>
     </row>
   </sheetData>
@@ -4986,28 +4986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>305.5246555475188</v>
+        <v>412.8816748732212</v>
       </c>
       <c r="AB2" t="n">
-        <v>418.0323125166333</v>
+        <v>564.9229226154836</v>
       </c>
       <c r="AC2" t="n">
-        <v>378.1358953220806</v>
+        <v>511.0074717553627</v>
       </c>
       <c r="AD2" t="n">
-        <v>305524.6555475188</v>
+        <v>412881.6748732212</v>
       </c>
       <c r="AE2" t="n">
-        <v>418032.3125166334</v>
+        <v>564922.9226154835</v>
       </c>
       <c r="AF2" t="n">
         <v>7.656638456437379e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.92592592592592</v>
       </c>
       <c r="AH2" t="n">
-        <v>378135.8953220806</v>
+        <v>511007.4717553627</v>
       </c>
     </row>
     <row r="3">
@@ -5092,28 +5092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>224.0122326651995</v>
+        <v>302.0475926716674</v>
       </c>
       <c r="AB3" t="n">
-        <v>306.503419454601</v>
+        <v>413.2748416927055</v>
       </c>
       <c r="AC3" t="n">
-        <v>277.2511632821956</v>
+        <v>373.8324708364362</v>
       </c>
       <c r="AD3" t="n">
-        <v>224012.2326651995</v>
+        <v>302047.5926716673</v>
       </c>
       <c r="AE3" t="n">
-        <v>306503.4194546011</v>
+        <v>413274.8416927055</v>
       </c>
       <c r="AF3" t="n">
         <v>1.001028020232195e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.00694444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>277251.1632821956</v>
+        <v>373832.4708364363</v>
       </c>
     </row>
   </sheetData>
@@ -5389,28 +5389,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>213.1539218980067</v>
+        <v>298.7974343820831</v>
       </c>
       <c r="AB2" t="n">
-        <v>291.6465996280729</v>
+        <v>408.8278317340323</v>
       </c>
       <c r="AC2" t="n">
-        <v>263.8122574882289</v>
+        <v>369.809877266801</v>
       </c>
       <c r="AD2" t="n">
-        <v>213153.9218980067</v>
+        <v>298797.4343820831</v>
       </c>
       <c r="AE2" t="n">
-        <v>291646.5996280729</v>
+        <v>408827.8317340323</v>
       </c>
       <c r="AF2" t="n">
         <v>1.196256712640816e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.70138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>263812.2574882289</v>
+        <v>369809.877266801</v>
       </c>
     </row>
     <row r="3">
@@ -5495,28 +5495,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>213.4736851634675</v>
+        <v>299.1171976475438</v>
       </c>
       <c r="AB3" t="n">
-        <v>292.0841138348357</v>
+        <v>409.2653459407954</v>
       </c>
       <c r="AC3" t="n">
-        <v>264.2080159531536</v>
+        <v>370.2056357317257</v>
       </c>
       <c r="AD3" t="n">
-        <v>213473.6851634675</v>
+        <v>299117.1976475439</v>
       </c>
       <c r="AE3" t="n">
-        <v>292084.1138348357</v>
+        <v>409265.3459407954</v>
       </c>
       <c r="AF3" t="n">
         <v>1.196032348708158e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.70138888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>264208.0159531535</v>
+        <v>370205.6357317257</v>
       </c>
     </row>
   </sheetData>
@@ -5792,28 +5792,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>219.9254459537486</v>
+        <v>304.5338462715727</v>
       </c>
       <c r="AB2" t="n">
-        <v>300.9116975796917</v>
+        <v>416.6766435538635</v>
       </c>
       <c r="AC2" t="n">
-        <v>272.1931074949949</v>
+        <v>376.9096095024241</v>
       </c>
       <c r="AD2" t="n">
-        <v>219925.4459537486</v>
+        <v>304533.8462715726</v>
       </c>
       <c r="AE2" t="n">
-        <v>300911.6975796917</v>
+        <v>416676.6435538635</v>
       </c>
       <c r="AF2" t="n">
         <v>1.291443074870865e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.59259259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>272193.1074949949</v>
+        <v>376909.6095024241</v>
       </c>
     </row>
   </sheetData>
@@ -9390,28 +9390,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>228.4418155491687</v>
+        <v>321.4673243069138</v>
       </c>
       <c r="AB2" t="n">
-        <v>312.5641701758496</v>
+        <v>439.8457752541437</v>
       </c>
       <c r="AC2" t="n">
-        <v>282.7334844609271</v>
+        <v>397.8675117913103</v>
       </c>
       <c r="AD2" t="n">
-        <v>228441.8155491687</v>
+        <v>321467.3243069138</v>
       </c>
       <c r="AE2" t="n">
-        <v>312564.1701758496</v>
+        <v>439845.7752541438</v>
       </c>
       <c r="AF2" t="n">
         <v>1.360404423889428e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.75</v>
       </c>
       <c r="AH2" t="n">
-        <v>282733.4844609271</v>
+        <v>397867.5117913103</v>
       </c>
     </row>
   </sheetData>
@@ -9687,28 +9687,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>279.1098537339724</v>
+        <v>388.5224391602397</v>
       </c>
       <c r="AB2" t="n">
-        <v>381.8904153365286</v>
+        <v>531.593541659348</v>
       </c>
       <c r="AC2" t="n">
-        <v>345.4433300833738</v>
+        <v>480.8590001396008</v>
       </c>
       <c r="AD2" t="n">
-        <v>279109.8537339724</v>
+        <v>388522.4391602398</v>
       </c>
       <c r="AE2" t="n">
-        <v>381890.4153365286</v>
+        <v>531593.5416593481</v>
       </c>
       <c r="AF2" t="n">
         <v>1.424786964046958e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.68055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>345443.3300833738</v>
+        <v>480859.0001396008</v>
       </c>
     </row>
   </sheetData>
@@ -9984,28 +9984,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>235.0874064260782</v>
+        <v>321.5698379295507</v>
       </c>
       <c r="AB2" t="n">
-        <v>321.6569607964103</v>
+        <v>439.9860389152174</v>
       </c>
       <c r="AC2" t="n">
-        <v>290.9584719064762</v>
+        <v>397.9943888854324</v>
       </c>
       <c r="AD2" t="n">
-        <v>235087.4064260782</v>
+        <v>321569.8379295507</v>
       </c>
       <c r="AE2" t="n">
-        <v>321656.9607964103</v>
+        <v>439986.0389152174</v>
       </c>
       <c r="AF2" t="n">
         <v>1.042432354271682e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.38425925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>290958.4719064762</v>
+        <v>397994.3888854324</v>
       </c>
     </row>
     <row r="3">
@@ -10090,28 +10090,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>217.7750556982702</v>
+        <v>294.671217428306</v>
       </c>
       <c r="AB3" t="n">
-        <v>297.9694387636251</v>
+        <v>403.18215966203</v>
       </c>
       <c r="AC3" t="n">
-        <v>269.5316537308466</v>
+        <v>364.7030202136002</v>
       </c>
       <c r="AD3" t="n">
-        <v>217775.0556982702</v>
+        <v>294671.217428306</v>
       </c>
       <c r="AE3" t="n">
-        <v>297969.4387636251</v>
+        <v>403182.1596620299</v>
       </c>
       <c r="AF3" t="n">
         <v>1.107025547424417e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.36574074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>269531.6537308466</v>
+        <v>364703.0202136001</v>
       </c>
     </row>
   </sheetData>
@@ -10387,28 +10387,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>296.9280648438171</v>
+        <v>394.224032965712</v>
       </c>
       <c r="AB2" t="n">
-        <v>406.2700778610134</v>
+        <v>539.3947138405612</v>
       </c>
       <c r="AC2" t="n">
-        <v>367.496231833593</v>
+        <v>487.9156393968528</v>
       </c>
       <c r="AD2" t="n">
-        <v>296928.0648438171</v>
+        <v>394224.032965712</v>
       </c>
       <c r="AE2" t="n">
-        <v>406270.0778610134</v>
+        <v>539394.7138405612</v>
       </c>
       <c r="AF2" t="n">
         <v>8.099105180656055e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.21990740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>367496.231833593</v>
+        <v>487915.6393968528</v>
       </c>
     </row>
     <row r="3">
@@ -10493,28 +10493,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>222.5421657787238</v>
+        <v>300.3654763147015</v>
       </c>
       <c r="AB3" t="n">
-        <v>304.4920090857522</v>
+        <v>410.9732958833686</v>
       </c>
       <c r="AC3" t="n">
-        <v>275.4317190959169</v>
+        <v>371.7505813289026</v>
       </c>
       <c r="AD3" t="n">
-        <v>222542.1657787238</v>
+        <v>300365.4763147015</v>
       </c>
       <c r="AE3" t="n">
-        <v>304492.0090857522</v>
+        <v>410973.2958833686</v>
       </c>
       <c r="AF3" t="n">
         <v>1.021528647139491e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.03009259259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>275431.7190959169</v>
+        <v>371750.5813289026</v>
       </c>
     </row>
   </sheetData>
@@ -10790,28 +10790,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>343.4425465133944</v>
+        <v>478.7861016529664</v>
       </c>
       <c r="AB2" t="n">
-        <v>469.913243755432</v>
+        <v>655.0962668336396</v>
       </c>
       <c r="AC2" t="n">
-        <v>425.0653832987927</v>
+        <v>592.5747985604213</v>
       </c>
       <c r="AD2" t="n">
-        <v>343442.5465133944</v>
+        <v>478786.1016529664</v>
       </c>
       <c r="AE2" t="n">
-        <v>469913.243755432</v>
+        <v>655096.2668336396</v>
       </c>
       <c r="AF2" t="n">
         <v>1.348883857435316e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.45601851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>425065.3832987926</v>
+        <v>592574.7985604213</v>
       </c>
     </row>
   </sheetData>
@@ -11087,28 +11087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>220.7604690311144</v>
+        <v>305.6469545492627</v>
       </c>
       <c r="AB2" t="n">
-        <v>302.0542129927613</v>
+        <v>418.1996474062705</v>
       </c>
       <c r="AC2" t="n">
-        <v>273.226582840572</v>
+        <v>378.2872600047068</v>
       </c>
       <c r="AD2" t="n">
-        <v>220760.4690311144</v>
+        <v>305646.9545492626</v>
       </c>
       <c r="AE2" t="n">
-        <v>302054.2129927613</v>
+        <v>418199.6474062705</v>
       </c>
       <c r="AF2" t="n">
         <v>1.257720837202189e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.22222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>273226.5828405719</v>
+        <v>378287.2600047068</v>
       </c>
     </row>
   </sheetData>
@@ -11384,28 +11384,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>214.7141601303954</v>
+        <v>300.674526253717</v>
       </c>
       <c r="AB2" t="n">
-        <v>293.7813864104788</v>
+        <v>411.3961516442506</v>
       </c>
       <c r="AC2" t="n">
-        <v>265.7433032163149</v>
+        <v>372.1330803294478</v>
       </c>
       <c r="AD2" t="n">
-        <v>214714.1601303954</v>
+        <v>300674.526253717</v>
       </c>
       <c r="AE2" t="n">
-        <v>293781.3864104789</v>
+        <v>411396.1516442506</v>
       </c>
       <c r="AF2" t="n">
         <v>1.162664444145409e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.58564814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>265743.3032163149</v>
+        <v>372133.0803294478</v>
       </c>
     </row>
     <row r="3">
@@ -11490,28 +11490,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>215.1633361797555</v>
+        <v>301.123702303077</v>
       </c>
       <c r="AB3" t="n">
-        <v>294.3959688974618</v>
+        <v>412.0107341312338</v>
       </c>
       <c r="AC3" t="n">
-        <v>266.2992308133122</v>
+        <v>372.6890079264452</v>
       </c>
       <c r="AD3" t="n">
-        <v>215163.3361797555</v>
+        <v>301123.702303077</v>
       </c>
       <c r="AE3" t="n">
-        <v>294395.9688974618</v>
+        <v>412010.7341312338</v>
       </c>
       <c r="AF3" t="n">
         <v>1.161364688844026e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.60879629629629</v>
       </c>
       <c r="AH3" t="n">
-        <v>266299.2308133122</v>
+        <v>372689.0079264452</v>
       </c>
     </row>
   </sheetData>
